--- a/GGFPortal/VN/Temp/Excel/Sample整燙.xlsx
+++ b/GGFPortal/VN/Temp/Excel/Sample整燙.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <r>
       <t xml:space="preserve">GREAT  GLOBAL INTERNATIONAL CO.,LTD </t>
@@ -100,108 +100,120 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>訂單數量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 组生产量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單交期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上線日期  </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1人8H標準產量 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際工作人數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工時</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>總工時</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日目標產量 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日產量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>前一天</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 累計量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>正負數量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">組各別效率    </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">組效率    </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>返修率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>部門
+Bộ Phận</t>
+  </si>
+  <si>
+    <t>客户 
+Khách Hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">款號
+Mã Hàng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訂單數量
+SL đơn hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 组生产量
+sản lượng tổ</t>
+  </si>
+  <si>
+    <t>訂單交期
+Ngày giao hàng</t>
+  </si>
+  <si>
+    <t>上線日期  
+Ngày
+lên chuyền</t>
+  </si>
+  <si>
+    <t>1人8H標準產量 
+M.tiêu 1ng/8H</t>
+  </si>
+  <si>
+    <t>實際工作人數
+Số cn  làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工時
+Thời gian
+ làm việc </t>
+  </si>
+  <si>
+    <t>總工時
+tổng thời gian làm việc của cả tổ</t>
+  </si>
+  <si>
+    <t>百分比
+phần trăm</t>
+  </si>
+  <si>
+    <t>今日目標產量 
+SL Mụ tiêu ngày</t>
+  </si>
+  <si>
+    <t>今日產量
+Sản Lượng Ngày</t>
+  </si>
+  <si>
+    <t>前一天
+Tích luỹ trước 1 ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 累計量
+Sản lượng tích luỹ</t>
+  </si>
+  <si>
+    <t>正負數量
+Sản lượng  tích luỹ</t>
+  </si>
+  <si>
+    <t>組各別效率    
+hiệu quả của 1 mã hàng trong tổ</t>
+  </si>
+  <si>
+    <t>組效率    
+Tỉ Lệ Hiệu Suất %</t>
+  </si>
+  <si>
+    <t>返修率
+Tỉ lệ hàng sửa</t>
   </si>
   <si>
     <t xml:space="preserve">责任归属及上线天数 (文字備註)                             </t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>顏色</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日各組成本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日生產成本/DZ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工繳收入/DZ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日工繳收入/DZ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日生產損益 USD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CM-COST)/CM 損 益 %</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日各組成本
+giá thành các tổ </t>
+  </si>
+  <si>
+    <t>今日生產成本/DZ 
+giá thành SP/DZ</t>
+  </si>
+  <si>
+    <t>工繳收入/DZ
+Đơn giá bán/DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日工繳收入/DZ 
+Doanh thu </t>
+  </si>
+  <si>
+    <t>今日生產損益 USD
+USD Lãi,lỗ</t>
+  </si>
+  <si>
+    <t>(CM-COST)/CM 損 益 %
+lãi lỗ</t>
   </si>
   <si>
     <t>損益累積</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -216,7 +228,7 @@
     <numFmt numFmtId="179" formatCode="\+0_ ;[Red]\-0"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -725,15 +737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -762,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:32" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -788,7 +800,7 @@
       <c r="U2" s="23"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:29" s="14" customFormat="1" ht="76.5" customHeight="1">
+    <row r="3" spans="1:32" s="14" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -823,85 +835,94 @@
         <v>13</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F12" s="15"/>
     </row>
   </sheetData>
